--- a/Input Files/Steel Book POLE_MATCHED.xlsx
+++ b/Input Files/Steel Book POLE_MATCHED.xlsx
@@ -731,7 +731,7 @@
       <c r="B10" s="2" t="inlineStr"/>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>01/Jun/2025</t>
+          <t>2025-06-01 00:00:00</t>
         </is>
       </c>
       <c r="D10" s="1" t="inlineStr">
@@ -749,8 +749,10 @@
       <c r="H10" s="1" t="inlineStr"/>
       <c r="I10" s="1" t="inlineStr"/>
       <c r="J10" s="1" t="inlineStr"/>
-      <c r="K10" s="7" t="n">
-        <v>3712473095.71</v>
+      <c r="K10" s="7" t="inlineStr">
+        <is>
+          <t>3712473095.71</t>
+        </is>
       </c>
       <c r="L10" s="1" t="inlineStr"/>
     </row>
@@ -759,7 +761,7 @@
       <c r="B11" s="2" t="inlineStr"/>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>01/Jun/2025</t>
+          <t>2025-06-01 00:00:00</t>
         </is>
       </c>
       <c r="D11" s="1" t="inlineStr">
@@ -784,8 +786,10 @@
           <t>70368</t>
         </is>
       </c>
-      <c r="J11" s="7" t="n">
-        <v>79787</v>
+      <c r="J11" s="7" t="inlineStr">
+        <is>
+          <t>79787</t>
+        </is>
       </c>
       <c r="K11" s="1" t="inlineStr"/>
       <c r="L11" s="1" t="inlineStr"/>
@@ -840,7 +844,7 @@
       <c r="B14" s="12" t="inlineStr"/>
       <c r="C14" s="11" t="inlineStr">
         <is>
-          <t>01/Jun/2025</t>
+          <t>2025-06-01 00:00:00</t>
         </is>
       </c>
       <c r="D14" s="11" t="inlineStr">
@@ -866,8 +870,10 @@
         </is>
       </c>
       <c r="J14" s="11" t="inlineStr"/>
-      <c r="K14" s="15" t="n">
-        <v>9000000</v>
+      <c r="K14" s="15" t="inlineStr">
+        <is>
+          <t>9000000</t>
+        </is>
       </c>
       <c r="L14" s="11" t="inlineStr">
         <is>
@@ -942,7 +948,7 @@
       <c r="B17" s="2" t="inlineStr"/>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>01/Jun/2025</t>
+          <t>2025-06-01 00:00:00</t>
         </is>
       </c>
       <c r="D17" s="1" t="inlineStr">
@@ -968,8 +974,10 @@
         </is>
       </c>
       <c r="J17" s="1" t="inlineStr"/>
-      <c r="K17" s="7" t="n">
-        <v>905515</v>
+      <c r="K17" s="7" t="inlineStr">
+        <is>
+          <t>905515</t>
+        </is>
       </c>
       <c r="L17" s="1" t="inlineStr"/>
     </row>
@@ -1022,7 +1030,7 @@
       <c r="B20" s="19" t="inlineStr"/>
       <c r="C20" s="18" t="inlineStr">
         <is>
-          <t>02/Jun/2025</t>
+          <t>2025-06-02 00:00:00</t>
         </is>
       </c>
       <c r="D20" s="18" t="inlineStr">
@@ -1048,8 +1056,10 @@
         </is>
       </c>
       <c r="J20" s="18" t="inlineStr"/>
-      <c r="K20" s="22" t="n">
-        <v>18027176.54</v>
+      <c r="K20" s="22" t="inlineStr">
+        <is>
+          <t>18027176.54</t>
+        </is>
       </c>
       <c r="L20" s="18" t="inlineStr">
         <is>
@@ -1128,7 +1138,7 @@
       <c r="B23" s="12" t="inlineStr"/>
       <c r="C23" s="11" t="inlineStr">
         <is>
-          <t>03/Jun/2025</t>
+          <t>2025-06-03 00:00:00</t>
         </is>
       </c>
       <c r="D23" s="11" t="inlineStr">
@@ -1153,8 +1163,10 @@
           <t>70391</t>
         </is>
       </c>
-      <c r="J23" s="15" t="n">
-        <v>600000</v>
+      <c r="J23" s="15" t="inlineStr">
+        <is>
+          <t>600000</t>
+        </is>
       </c>
       <c r="K23" s="11" t="inlineStr"/>
       <c r="L23" s="11" t="inlineStr">
@@ -1230,7 +1242,7 @@
       <c r="B26" s="2" t="inlineStr"/>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>03/Jun/2025</t>
+          <t>2025-06-03 00:00:00</t>
         </is>
       </c>
       <c r="D26" s="1" t="inlineStr">
@@ -1255,8 +1267,10 @@
           <t>70393</t>
         </is>
       </c>
-      <c r="J26" s="7" t="n">
-        <v>384803.22</v>
+      <c r="J26" s="7" t="inlineStr">
+        <is>
+          <t>384803.22</t>
+        </is>
       </c>
       <c r="K26" s="1" t="inlineStr"/>
       <c r="L26" s="1" t="inlineStr"/>
@@ -1311,7 +1325,7 @@
       <c r="B29" s="19" t="inlineStr"/>
       <c r="C29" s="18" t="inlineStr">
         <is>
-          <t>03/Jun/2025</t>
+          <t>2025-06-03 00:00:00</t>
         </is>
       </c>
       <c r="D29" s="18" t="inlineStr">
@@ -1336,8 +1350,10 @@
           <t>70394</t>
         </is>
       </c>
-      <c r="J29" s="22" t="n">
-        <v>700000</v>
+      <c r="J29" s="22" t="inlineStr">
+        <is>
+          <t>700000</t>
+        </is>
       </c>
       <c r="K29" s="18" t="inlineStr"/>
       <c r="L29" s="18" t="inlineStr">
@@ -1417,7 +1433,7 @@
       <c r="B32" s="12" t="inlineStr"/>
       <c r="C32" s="11" t="inlineStr">
         <is>
-          <t>03/Jun/2025</t>
+          <t>2025-06-03 00:00:00</t>
         </is>
       </c>
       <c r="D32" s="11" t="inlineStr">
@@ -1442,8 +1458,10 @@
           <t>70395</t>
         </is>
       </c>
-      <c r="J32" s="15" t="n">
-        <v>300000</v>
+      <c r="J32" s="15" t="inlineStr">
+        <is>
+          <t>300000</t>
+        </is>
       </c>
       <c r="K32" s="11" t="inlineStr"/>
       <c r="L32" s="11" t="inlineStr">
@@ -1524,7 +1542,7 @@
       <c r="B35" s="19" t="inlineStr"/>
       <c r="C35" s="18" t="inlineStr">
         <is>
-          <t>03/Jun/2025</t>
+          <t>2025-06-03 00:00:00</t>
         </is>
       </c>
       <c r="D35" s="18" t="inlineStr">
@@ -1549,8 +1567,10 @@
           <t>70396</t>
         </is>
       </c>
-      <c r="J35" s="22" t="n">
-        <v>700000</v>
+      <c r="J35" s="22" t="inlineStr">
+        <is>
+          <t>700000</t>
+        </is>
       </c>
       <c r="K35" s="18" t="inlineStr"/>
       <c r="L35" s="18" t="inlineStr">
@@ -1630,7 +1650,7 @@
       <c r="B38" s="12" t="inlineStr"/>
       <c r="C38" s="11" t="inlineStr">
         <is>
-          <t>03/Jun/2025</t>
+          <t>2025-06-03 00:00:00</t>
         </is>
       </c>
       <c r="D38" s="11" t="inlineStr">
@@ -1655,8 +1675,10 @@
           <t>70397</t>
         </is>
       </c>
-      <c r="J38" s="15" t="n">
-        <v>100000</v>
+      <c r="J38" s="15" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
       </c>
       <c r="K38" s="11" t="inlineStr"/>
       <c r="L38" s="11" t="inlineStr">
@@ -1732,7 +1754,7 @@
       <c r="B41" s="2" t="inlineStr"/>
       <c r="C41" s="1" t="inlineStr">
         <is>
-          <t>03/Jun/2025</t>
+          <t>2025-06-03 00:00:00</t>
         </is>
       </c>
       <c r="D41" s="1" t="inlineStr">
@@ -1757,8 +1779,10 @@
           <t>70404</t>
         </is>
       </c>
-      <c r="J41" s="7" t="n">
-        <v>5771409.6</v>
+      <c r="J41" s="7" t="inlineStr">
+        <is>
+          <t>5771409.6</t>
+        </is>
       </c>
       <c r="K41" s="1" t="inlineStr"/>
       <c r="L41" s="1" t="inlineStr"/>
@@ -1809,7 +1833,7 @@
       <c r="B44" s="2" t="inlineStr"/>
       <c r="C44" s="1" t="inlineStr">
         <is>
-          <t>03/Jun/2025</t>
+          <t>2025-06-03 00:00:00</t>
         </is>
       </c>
       <c r="D44" s="1" t="inlineStr">
@@ -1834,8 +1858,10 @@
           <t>70588</t>
         </is>
       </c>
-      <c r="J44" s="7" t="n">
-        <v>19383502</v>
+      <c r="J44" s="7" t="inlineStr">
+        <is>
+          <t>19383502</t>
+        </is>
       </c>
       <c r="K44" s="1" t="inlineStr"/>
       <c r="L44" s="1" t="inlineStr"/>
@@ -1855,8 +1881,10 @@
       <c r="H45" s="1" t="inlineStr"/>
       <c r="I45" s="1" t="inlineStr"/>
       <c r="J45" s="1" t="inlineStr"/>
-      <c r="K45" s="7" t="n">
-        <v>9200000</v>
+      <c r="K45" s="7" t="inlineStr">
+        <is>
+          <t>9200000</t>
+        </is>
       </c>
       <c r="L45" s="1" t="inlineStr"/>
     </row>
@@ -1875,8 +1903,10 @@
       <c r="H46" s="1" t="inlineStr"/>
       <c r="I46" s="1" t="inlineStr"/>
       <c r="J46" s="1" t="inlineStr"/>
-      <c r="K46" s="7" t="n">
-        <v>10183502</v>
+      <c r="K46" s="7" t="inlineStr">
+        <is>
+          <t>10183502</t>
+        </is>
       </c>
       <c r="L46" s="1" t="inlineStr"/>
     </row>
@@ -1929,7 +1959,7 @@
       <c r="B49" s="19" t="inlineStr"/>
       <c r="C49" s="18" t="inlineStr">
         <is>
-          <t>04/Jun/2025</t>
+          <t>2025-06-04 00:00:00</t>
         </is>
       </c>
       <c r="D49" s="18" t="inlineStr">
@@ -1954,8 +1984,10 @@
           <t>70400</t>
         </is>
       </c>
-      <c r="J49" s="22" t="n">
-        <v>200000</v>
+      <c r="J49" s="22" t="inlineStr">
+        <is>
+          <t>200000</t>
+        </is>
       </c>
       <c r="K49" s="18" t="inlineStr"/>
       <c r="L49" s="18" t="inlineStr">
@@ -2035,7 +2067,7 @@
       <c r="B52" s="12" t="inlineStr"/>
       <c r="C52" s="11" t="inlineStr">
         <is>
-          <t>04/Jun/2025</t>
+          <t>2025-06-04 00:00:00</t>
         </is>
       </c>
       <c r="D52" s="11" t="inlineStr">
@@ -2061,8 +2093,10 @@
         </is>
       </c>
       <c r="J52" s="11" t="inlineStr"/>
-      <c r="K52" s="15" t="n">
-        <v>41625247.63</v>
+      <c r="K52" s="15" t="inlineStr">
+        <is>
+          <t>41625247.63</t>
+        </is>
       </c>
       <c r="L52" s="11" t="inlineStr">
         <is>
@@ -2141,7 +2175,7 @@
       <c r="B55" s="19" t="inlineStr"/>
       <c r="C55" s="18" t="inlineStr">
         <is>
-          <t>04/Jun/2025</t>
+          <t>2025-06-04 00:00:00</t>
         </is>
       </c>
       <c r="D55" s="18" t="inlineStr">
@@ -2166,8 +2200,10 @@
           <t>70804</t>
         </is>
       </c>
-      <c r="J55" s="22" t="n">
-        <v>36600000</v>
+      <c r="J55" s="22" t="inlineStr">
+        <is>
+          <t>36600000</t>
+        </is>
       </c>
       <c r="K55" s="18" t="inlineStr"/>
       <c r="L55" s="18" t="inlineStr">
@@ -2247,7 +2283,7 @@
       <c r="B58" s="12" t="inlineStr"/>
       <c r="C58" s="11" t="inlineStr">
         <is>
-          <t>05/Jun/2025</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="D58" s="11" t="inlineStr">
@@ -2272,8 +2308,10 @@
           <t>70845</t>
         </is>
       </c>
-      <c r="J58" s="15" t="n">
-        <v>62525</v>
+      <c r="J58" s="15" t="inlineStr">
+        <is>
+          <t>62525</t>
+        </is>
       </c>
       <c r="K58" s="11" t="inlineStr"/>
       <c r="L58" s="11" t="inlineStr">
@@ -2349,7 +2387,7 @@
       <c r="B61" s="2" t="inlineStr"/>
       <c r="C61" s="1" t="inlineStr">
         <is>
-          <t>05/Jun/2025</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="D61" s="1" t="inlineStr">
@@ -2374,8 +2412,10 @@
           <t>70846</t>
         </is>
       </c>
-      <c r="J61" s="7" t="n">
-        <v>20000</v>
+      <c r="J61" s="7" t="inlineStr">
+        <is>
+          <t>20000</t>
+        </is>
       </c>
       <c r="K61" s="1" t="inlineStr"/>
       <c r="L61" s="1" t="inlineStr"/>
@@ -2425,7 +2465,7 @@
       <c r="B64" s="2" t="inlineStr"/>
       <c r="C64" s="1" t="inlineStr">
         <is>
-          <t>05/Jun/2025</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="D64" s="1" t="inlineStr">
@@ -2450,8 +2490,10 @@
           <t>70847</t>
         </is>
       </c>
-      <c r="J64" s="7" t="n">
-        <v>17500</v>
+      <c r="J64" s="7" t="inlineStr">
+        <is>
+          <t>17500</t>
+        </is>
       </c>
       <c r="K64" s="1" t="inlineStr"/>
       <c r="L64" s="1" t="inlineStr"/>
@@ -2501,7 +2543,7 @@
       <c r="B67" s="2" t="inlineStr"/>
       <c r="C67" s="1" t="inlineStr">
         <is>
-          <t>05/Jun/2025</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="D67" s="1" t="inlineStr">
@@ -2526,8 +2568,10 @@
           <t>70848</t>
         </is>
       </c>
-      <c r="J67" s="7" t="n">
-        <v>110839</v>
+      <c r="J67" s="7" t="inlineStr">
+        <is>
+          <t>110839</t>
+        </is>
       </c>
       <c r="K67" s="1" t="inlineStr"/>
       <c r="L67" s="1" t="inlineStr"/>
@@ -2581,7 +2625,7 @@
       <c r="B70" s="19" t="inlineStr"/>
       <c r="C70" s="18" t="inlineStr">
         <is>
-          <t>05/Jun/2025</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="D70" s="18" t="inlineStr">
@@ -2606,8 +2650,10 @@
           <t>procure-55808</t>
         </is>
       </c>
-      <c r="J70" s="22" t="n">
-        <v>587020</v>
+      <c r="J70" s="22" t="inlineStr">
+        <is>
+          <t>587020</t>
+        </is>
       </c>
       <c r="K70" s="18" t="inlineStr"/>
       <c r="L70" s="18" t="inlineStr">
@@ -2687,7 +2733,7 @@
       <c r="B73" s="12" t="inlineStr"/>
       <c r="C73" s="11" t="inlineStr">
         <is>
-          <t>05/Jun/2025</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="D73" s="11" t="inlineStr">
@@ -2712,8 +2758,10 @@
           <t>procure-55756</t>
         </is>
       </c>
-      <c r="J73" s="15" t="n">
-        <v>2250</v>
+      <c r="J73" s="15" t="inlineStr">
+        <is>
+          <t>2250</t>
+        </is>
       </c>
       <c r="K73" s="11" t="inlineStr"/>
       <c r="L73" s="11" t="inlineStr">
@@ -2793,7 +2841,7 @@
       <c r="B76" s="19" t="inlineStr"/>
       <c r="C76" s="18" t="inlineStr">
         <is>
-          <t>05/Jun/2025</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="D76" s="18" t="inlineStr">
@@ -2818,8 +2866,10 @@
           <t>procure-55758</t>
         </is>
       </c>
-      <c r="J76" s="22" t="n">
-        <v>62460</v>
+      <c r="J76" s="22" t="inlineStr">
+        <is>
+          <t>62460</t>
+        </is>
       </c>
       <c r="K76" s="18" t="inlineStr"/>
       <c r="L76" s="18" t="inlineStr">
@@ -2899,7 +2949,7 @@
       <c r="B79" s="12" t="inlineStr"/>
       <c r="C79" s="11" t="inlineStr">
         <is>
-          <t>05/Jun/2025</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="D79" s="11" t="inlineStr">
@@ -2924,8 +2974,10 @@
           <t>procure-55766</t>
         </is>
       </c>
-      <c r="J79" s="15" t="n">
-        <v>740488</v>
+      <c r="J79" s="15" t="inlineStr">
+        <is>
+          <t>740488</t>
+        </is>
       </c>
       <c r="K79" s="11" t="inlineStr"/>
       <c r="L79" s="11" t="inlineStr">
@@ -3005,7 +3057,7 @@
       <c r="B82" s="19" t="inlineStr"/>
       <c r="C82" s="18" t="inlineStr">
         <is>
-          <t>05/Jun/2025</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="D82" s="18" t="inlineStr">
@@ -3030,8 +3082,10 @@
           <t>procure-55770</t>
         </is>
       </c>
-      <c r="J82" s="22" t="n">
-        <v>202621.73</v>
+      <c r="J82" s="22" t="inlineStr">
+        <is>
+          <t>202621.73</t>
+        </is>
       </c>
       <c r="K82" s="18" t="inlineStr"/>
       <c r="L82" s="18" t="inlineStr">
@@ -3111,7 +3165,7 @@
       <c r="B85" s="12" t="inlineStr"/>
       <c r="C85" s="11" t="inlineStr">
         <is>
-          <t>05/Jun/2025</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="D85" s="11" t="inlineStr">
@@ -3136,8 +3190,10 @@
           <t>procure-55774</t>
         </is>
       </c>
-      <c r="J85" s="15" t="n">
-        <v>42300</v>
+      <c r="J85" s="15" t="inlineStr">
+        <is>
+          <t>42300</t>
+        </is>
       </c>
       <c r="K85" s="11" t="inlineStr"/>
       <c r="L85" s="11" t="inlineStr">
@@ -3217,7 +3273,7 @@
       <c r="B88" s="19" t="inlineStr"/>
       <c r="C88" s="18" t="inlineStr">
         <is>
-          <t>05/Jun/2025</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="D88" s="18" t="inlineStr">
@@ -3242,8 +3298,10 @@
           <t>procure-55776</t>
         </is>
       </c>
-      <c r="J88" s="22" t="n">
-        <v>40500</v>
+      <c r="J88" s="22" t="inlineStr">
+        <is>
+          <t>40500</t>
+        </is>
       </c>
       <c r="K88" s="18" t="inlineStr"/>
       <c r="L88" s="18" t="inlineStr">
@@ -3323,7 +3381,7 @@
       <c r="B91" s="12" t="inlineStr"/>
       <c r="C91" s="11" t="inlineStr">
         <is>
-          <t>05/Jun/2025</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="D91" s="11" t="inlineStr">
@@ -3348,8 +3406,10 @@
           <t>procure-55790</t>
         </is>
       </c>
-      <c r="J91" s="15" t="n">
-        <v>511750</v>
+      <c r="J91" s="15" t="inlineStr">
+        <is>
+          <t>511750</t>
+        </is>
       </c>
       <c r="K91" s="11" t="inlineStr"/>
       <c r="L91" s="11" t="inlineStr">
@@ -3429,7 +3489,7 @@
       <c r="B94" s="19" t="inlineStr"/>
       <c r="C94" s="18" t="inlineStr">
         <is>
-          <t>05/Jun/2025</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="D94" s="18" t="inlineStr">
@@ -3454,8 +3514,10 @@
           <t>procure-55794</t>
         </is>
       </c>
-      <c r="J94" s="22" t="n">
-        <v>669595</v>
+      <c r="J94" s="22" t="inlineStr">
+        <is>
+          <t>669595</t>
+        </is>
       </c>
       <c r="K94" s="18" t="inlineStr"/>
       <c r="L94" s="18" t="inlineStr">
@@ -3535,7 +3597,7 @@
       <c r="B97" s="12" t="inlineStr"/>
       <c r="C97" s="11" t="inlineStr">
         <is>
-          <t>05/Jun/2025</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="D97" s="11" t="inlineStr">
@@ -3560,8 +3622,10 @@
           <t>procure-55802</t>
         </is>
       </c>
-      <c r="J97" s="15" t="n">
-        <v>66980</v>
+      <c r="J97" s="15" t="inlineStr">
+        <is>
+          <t>66980</t>
+        </is>
       </c>
       <c r="K97" s="11" t="inlineStr"/>
       <c r="L97" s="11" t="inlineStr">
@@ -3641,7 +3705,7 @@
       <c r="B100" s="19" t="inlineStr"/>
       <c r="C100" s="18" t="inlineStr">
         <is>
-          <t>05/Jun/2025</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="D100" s="18" t="inlineStr">
@@ -3666,8 +3730,10 @@
           <t>procure-55804</t>
         </is>
       </c>
-      <c r="J100" s="22" t="n">
-        <v>12300</v>
+      <c r="J100" s="22" t="inlineStr">
+        <is>
+          <t>12300</t>
+        </is>
       </c>
       <c r="K100" s="18" t="inlineStr"/>
       <c r="L100" s="18" t="inlineStr">
@@ -3747,7 +3813,7 @@
       <c r="B103" s="12" t="inlineStr"/>
       <c r="C103" s="11" t="inlineStr">
         <is>
-          <t>05/Jun/2025</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="D103" s="11" t="inlineStr">
@@ -3772,8 +3838,10 @@
           <t>procure-55821</t>
         </is>
       </c>
-      <c r="J103" s="15" t="n">
-        <v>590</v>
+      <c r="J103" s="15" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
       </c>
       <c r="K103" s="11" t="inlineStr"/>
       <c r="L103" s="11" t="inlineStr">
@@ -3853,7 +3921,7 @@
       <c r="B106" s="19" t="inlineStr"/>
       <c r="C106" s="18" t="inlineStr">
         <is>
-          <t>05/Jun/2025</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="D106" s="18" t="inlineStr">
@@ -3878,8 +3946,10 @@
           <t>procure-55823</t>
         </is>
       </c>
-      <c r="J106" s="22" t="n">
-        <v>9000</v>
+      <c r="J106" s="22" t="inlineStr">
+        <is>
+          <t>9000</t>
+        </is>
       </c>
       <c r="K106" s="18" t="inlineStr"/>
       <c r="L106" s="18" t="inlineStr">
@@ -3959,7 +4029,7 @@
       <c r="B109" s="12" t="inlineStr"/>
       <c r="C109" s="11" t="inlineStr">
         <is>
-          <t>05/Jun/2025</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="D109" s="11" t="inlineStr">
@@ -3984,8 +4054,10 @@
           <t>procure-55855</t>
         </is>
       </c>
-      <c r="J109" s="15" t="n">
-        <v>9600</v>
+      <c r="J109" s="15" t="inlineStr">
+        <is>
+          <t>9600</t>
+        </is>
       </c>
       <c r="K109" s="11" t="inlineStr"/>
       <c r="L109" s="11" t="inlineStr">
@@ -4065,7 +4137,7 @@
       <c r="B112" s="19" t="inlineStr"/>
       <c r="C112" s="18" t="inlineStr">
         <is>
-          <t>05/Jun/2025</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="D112" s="18" t="inlineStr">
@@ -4090,8 +4162,10 @@
           <t>procure-55857</t>
         </is>
       </c>
-      <c r="J112" s="22" t="n">
-        <v>128327</v>
+      <c r="J112" s="22" t="inlineStr">
+        <is>
+          <t>128327</t>
+        </is>
       </c>
       <c r="K112" s="18" t="inlineStr"/>
       <c r="L112" s="18" t="inlineStr">
@@ -4171,7 +4245,7 @@
       <c r="B115" s="12" t="inlineStr"/>
       <c r="C115" s="11" t="inlineStr">
         <is>
-          <t>05/Jun/2025</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="D115" s="11" t="inlineStr">
@@ -4196,8 +4270,10 @@
           <t>procure-55863</t>
         </is>
       </c>
-      <c r="J115" s="15" t="n">
-        <v>131125</v>
+      <c r="J115" s="15" t="inlineStr">
+        <is>
+          <t>131125</t>
+        </is>
       </c>
       <c r="K115" s="11" t="inlineStr"/>
       <c r="L115" s="11" t="inlineStr">
@@ -4277,7 +4353,7 @@
       <c r="B118" s="19" t="inlineStr"/>
       <c r="C118" s="18" t="inlineStr">
         <is>
-          <t>05/Jun/2025</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="D118" s="18" t="inlineStr">
@@ -4302,8 +4378,10 @@
           <t>procure-55865</t>
         </is>
       </c>
-      <c r="J118" s="22" t="n">
-        <v>63065</v>
+      <c r="J118" s="22" t="inlineStr">
+        <is>
+          <t>63065</t>
+        </is>
       </c>
       <c r="K118" s="18" t="inlineStr"/>
       <c r="L118" s="18" t="inlineStr">
@@ -4383,7 +4461,7 @@
       <c r="B121" s="12" t="inlineStr"/>
       <c r="C121" s="11" t="inlineStr">
         <is>
-          <t>05/Jun/2025</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="D121" s="11" t="inlineStr">
@@ -4408,8 +4486,10 @@
           <t>procure-55869</t>
         </is>
       </c>
-      <c r="J121" s="15" t="n">
-        <v>230000</v>
+      <c r="J121" s="15" t="inlineStr">
+        <is>
+          <t>230000</t>
+        </is>
       </c>
       <c r="K121" s="11" t="inlineStr"/>
       <c r="L121" s="11" t="inlineStr">
@@ -4489,7 +4569,7 @@
       <c r="B124" s="19" t="inlineStr"/>
       <c r="C124" s="18" t="inlineStr">
         <is>
-          <t>05/Jun/2025</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="D124" s="18" t="inlineStr">
@@ -4514,8 +4594,10 @@
           <t>procure-55873</t>
         </is>
       </c>
-      <c r="J124" s="22" t="n">
-        <v>293250</v>
+      <c r="J124" s="22" t="inlineStr">
+        <is>
+          <t>293250</t>
+        </is>
       </c>
       <c r="K124" s="18" t="inlineStr"/>
       <c r="L124" s="18" t="inlineStr">
@@ -4595,7 +4677,7 @@
       <c r="B127" s="12" t="inlineStr"/>
       <c r="C127" s="11" t="inlineStr">
         <is>
-          <t>05/Jun/2025</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="D127" s="11" t="inlineStr">
@@ -4620,8 +4702,10 @@
           <t>procure-55877</t>
         </is>
       </c>
-      <c r="J127" s="15" t="n">
-        <v>6750</v>
+      <c r="J127" s="15" t="inlineStr">
+        <is>
+          <t>6750</t>
+        </is>
       </c>
       <c r="K127" s="11" t="inlineStr"/>
       <c r="L127" s="11" t="inlineStr">
@@ -4701,7 +4785,7 @@
       <c r="B130" s="19" t="inlineStr"/>
       <c r="C130" s="18" t="inlineStr">
         <is>
-          <t>05/Jun/2025</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="D130" s="18" t="inlineStr">
@@ -4726,8 +4810,10 @@
           <t>procure-55901</t>
         </is>
       </c>
-      <c r="J130" s="22" t="n">
-        <v>496219</v>
+      <c r="J130" s="22" t="inlineStr">
+        <is>
+          <t>496219</t>
+        </is>
       </c>
       <c r="K130" s="18" t="inlineStr"/>
       <c r="L130" s="18" t="inlineStr">
@@ -4807,7 +4893,7 @@
       <c r="B133" s="12" t="inlineStr"/>
       <c r="C133" s="11" t="inlineStr">
         <is>
-          <t>05/Jun/2025</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="D133" s="11" t="inlineStr">
@@ -4832,8 +4918,10 @@
           <t>70853</t>
         </is>
       </c>
-      <c r="J133" s="15" t="n">
-        <v>56500</v>
+      <c r="J133" s="15" t="inlineStr">
+        <is>
+          <t>56500</t>
+        </is>
       </c>
       <c r="K133" s="11" t="inlineStr"/>
       <c r="L133" s="11" t="inlineStr">
@@ -4913,7 +5001,7 @@
       <c r="B136" s="19" t="inlineStr"/>
       <c r="C136" s="18" t="inlineStr">
         <is>
-          <t>05/Jun/2025</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="D136" s="18" t="inlineStr">
@@ -4938,8 +5026,10 @@
           <t>70854</t>
         </is>
       </c>
-      <c r="J136" s="22" t="n">
-        <v>195820</v>
+      <c r="J136" s="22" t="inlineStr">
+        <is>
+          <t>195820</t>
+        </is>
       </c>
       <c r="K136" s="18" t="inlineStr"/>
       <c r="L136" s="18" t="inlineStr">
@@ -5019,7 +5109,7 @@
       <c r="B139" s="12" t="inlineStr"/>
       <c r="C139" s="11" t="inlineStr">
         <is>
-          <t>05/Jun/2025</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="D139" s="11" t="inlineStr">
@@ -5044,8 +5134,10 @@
           <t>70855</t>
         </is>
       </c>
-      <c r="J139" s="15" t="n">
-        <v>15300</v>
+      <c r="J139" s="15" t="inlineStr">
+        <is>
+          <t>15300</t>
+        </is>
       </c>
       <c r="K139" s="11" t="inlineStr"/>
       <c r="L139" s="11" t="inlineStr">
@@ -5125,7 +5217,7 @@
       <c r="B142" s="19" t="inlineStr"/>
       <c r="C142" s="18" t="inlineStr">
         <is>
-          <t>05/Jun/2025</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="D142" s="18" t="inlineStr">
@@ -5150,8 +5242,10 @@
           <t>70857</t>
         </is>
       </c>
-      <c r="J142" s="22" t="n">
-        <v>96000</v>
+      <c r="J142" s="22" t="inlineStr">
+        <is>
+          <t>96000</t>
+        </is>
       </c>
       <c r="K142" s="18" t="inlineStr"/>
       <c r="L142" s="18" t="inlineStr">
@@ -5231,7 +5325,7 @@
       <c r="B145" s="12" t="inlineStr"/>
       <c r="C145" s="11" t="inlineStr">
         <is>
-          <t>05/Jun/2025</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="D145" s="11" t="inlineStr">
@@ -5256,8 +5350,10 @@
           <t>procure-58292</t>
         </is>
       </c>
-      <c r="J145" s="15" t="n">
-        <v>10562.5</v>
+      <c r="J145" s="15" t="inlineStr">
+        <is>
+          <t>10562.5</t>
+        </is>
       </c>
       <c r="K145" s="11" t="inlineStr"/>
       <c r="L145" s="11" t="inlineStr">
@@ -5337,7 +5433,7 @@
       <c r="B148" s="19" t="inlineStr"/>
       <c r="C148" s="18" t="inlineStr">
         <is>
-          <t>05/Jun/2025</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="D148" s="18" t="inlineStr">
@@ -5362,8 +5458,10 @@
           <t>procure-58304</t>
         </is>
       </c>
-      <c r="J148" s="22" t="n">
-        <v>2700</v>
+      <c r="J148" s="22" t="inlineStr">
+        <is>
+          <t>2700</t>
+        </is>
       </c>
       <c r="K148" s="18" t="inlineStr"/>
       <c r="L148" s="18" t="inlineStr">
@@ -5443,7 +5541,7 @@
       <c r="B151" s="12" t="inlineStr"/>
       <c r="C151" s="11" t="inlineStr">
         <is>
-          <t>05/Jun/2025</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="D151" s="11" t="inlineStr">
@@ -5468,8 +5566,10 @@
           <t>procure-58806</t>
         </is>
       </c>
-      <c r="J151" s="15" t="n">
-        <v>26291.76</v>
+      <c r="J151" s="15" t="inlineStr">
+        <is>
+          <t>26291.76</t>
+        </is>
       </c>
       <c r="K151" s="11" t="inlineStr"/>
       <c r="L151" s="11" t="inlineStr">
@@ -5549,7 +5649,7 @@
       <c r="B154" s="19" t="inlineStr"/>
       <c r="C154" s="18" t="inlineStr">
         <is>
-          <t>05/Jun/2025</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="D154" s="18" t="inlineStr">
@@ -5574,8 +5674,10 @@
           <t>procure-58808</t>
         </is>
       </c>
-      <c r="J154" s="22" t="n">
-        <v>129240</v>
+      <c r="J154" s="22" t="inlineStr">
+        <is>
+          <t>129240</t>
+        </is>
       </c>
       <c r="K154" s="18" t="inlineStr"/>
       <c r="L154" s="18" t="inlineStr">
@@ -5655,7 +5757,7 @@
       <c r="B157" s="12" t="inlineStr"/>
       <c r="C157" s="11" t="inlineStr">
         <is>
-          <t>05/Jun/2025</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="D157" s="11" t="inlineStr">
@@ -5680,8 +5782,10 @@
           <t>procure-58810</t>
         </is>
       </c>
-      <c r="J157" s="15" t="n">
-        <v>15044</v>
+      <c r="J157" s="15" t="inlineStr">
+        <is>
+          <t>15044</t>
+        </is>
       </c>
       <c r="K157" s="11" t="inlineStr"/>
       <c r="L157" s="11" t="inlineStr">
@@ -5761,7 +5865,7 @@
       <c r="B160" s="19" t="inlineStr"/>
       <c r="C160" s="18" t="inlineStr">
         <is>
-          <t>05/Jun/2025</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="D160" s="18" t="inlineStr">
@@ -5786,8 +5890,10 @@
           <t>procure-58784</t>
         </is>
       </c>
-      <c r="J160" s="22" t="n">
-        <v>4967.7</v>
+      <c r="J160" s="22" t="inlineStr">
+        <is>
+          <t>4967.7</t>
+        </is>
       </c>
       <c r="K160" s="18" t="inlineStr"/>
       <c r="L160" s="18" t="inlineStr">
@@ -5867,7 +5973,7 @@
       <c r="B163" s="12" t="inlineStr"/>
       <c r="C163" s="11" t="inlineStr">
         <is>
-          <t>05/Jun/2025</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="D163" s="11" t="inlineStr">
@@ -5892,8 +5998,10 @@
           <t>procure-58788</t>
         </is>
       </c>
-      <c r="J163" s="15" t="n">
-        <v>8697.92</v>
+      <c r="J163" s="15" t="inlineStr">
+        <is>
+          <t>8697.92</t>
+        </is>
       </c>
       <c r="K163" s="11" t="inlineStr"/>
       <c r="L163" s="11" t="inlineStr">
@@ -5973,7 +6081,7 @@
       <c r="B166" s="19" t="inlineStr"/>
       <c r="C166" s="18" t="inlineStr">
         <is>
-          <t>05/Jun/2025</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="D166" s="18" t="inlineStr">
@@ -5998,8 +6106,10 @@
           <t>procure-58790</t>
         </is>
       </c>
-      <c r="J166" s="22" t="n">
-        <v>15000</v>
+      <c r="J166" s="22" t="inlineStr">
+        <is>
+          <t>15000</t>
+        </is>
       </c>
       <c r="K166" s="18" t="inlineStr"/>
       <c r="L166" s="18" t="inlineStr">
@@ -6079,7 +6189,7 @@
       <c r="B169" s="12" t="inlineStr"/>
       <c r="C169" s="11" t="inlineStr">
         <is>
-          <t>05/Jun/2025</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="D169" s="11" t="inlineStr">
@@ -6104,8 +6214,10 @@
           <t>procure-58874</t>
         </is>
       </c>
-      <c r="J169" s="15" t="n">
-        <v>235248</v>
+      <c r="J169" s="15" t="inlineStr">
+        <is>
+          <t>235248</t>
+        </is>
       </c>
       <c r="K169" s="11" t="inlineStr"/>
       <c r="L169" s="11" t="inlineStr">
@@ -6185,7 +6297,7 @@
       <c r="B172" s="19" t="inlineStr"/>
       <c r="C172" s="18" t="inlineStr">
         <is>
-          <t>05/Jun/2025</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="D172" s="18" t="inlineStr">
@@ -6210,8 +6322,10 @@
           <t>70856</t>
         </is>
       </c>
-      <c r="J172" s="22" t="n">
-        <v>197500</v>
+      <c r="J172" s="22" t="inlineStr">
+        <is>
+          <t>197500</t>
+        </is>
       </c>
       <c r="K172" s="18" t="inlineStr"/>
       <c r="L172" s="18" t="inlineStr">
@@ -6291,7 +6405,7 @@
       <c r="B175" s="12" t="inlineStr"/>
       <c r="C175" s="11" t="inlineStr">
         <is>
-          <t>05/Jun/2025</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="D175" s="11" t="inlineStr">
@@ -6316,8 +6430,10 @@
           <t>procure-47852</t>
         </is>
       </c>
-      <c r="J175" s="15" t="n">
-        <v>14000</v>
+      <c r="J175" s="15" t="inlineStr">
+        <is>
+          <t>14000</t>
+        </is>
       </c>
       <c r="K175" s="11" t="inlineStr"/>
       <c r="L175" s="11" t="inlineStr">
@@ -6397,7 +6513,7 @@
       <c r="B178" s="19" t="inlineStr"/>
       <c r="C178" s="18" t="inlineStr">
         <is>
-          <t>05/Jun/2025</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="D178" s="18" t="inlineStr">
@@ -6422,8 +6538,10 @@
           <t>70858</t>
         </is>
       </c>
-      <c r="J178" s="22" t="n">
-        <v>121231</v>
+      <c r="J178" s="22" t="inlineStr">
+        <is>
+          <t>121231</t>
+        </is>
       </c>
       <c r="K178" s="18" t="inlineStr"/>
       <c r="L178" s="18" t="inlineStr">
@@ -6503,7 +6621,7 @@
       <c r="B181" s="12" t="inlineStr"/>
       <c r="C181" s="11" t="inlineStr">
         <is>
-          <t>05/Jun/2025</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="D181" s="11" t="inlineStr">
@@ -6528,8 +6646,10 @@
           <t>70859</t>
         </is>
       </c>
-      <c r="J181" s="15" t="n">
-        <v>63811</v>
+      <c r="J181" s="15" t="inlineStr">
+        <is>
+          <t>63811</t>
+        </is>
       </c>
       <c r="K181" s="11" t="inlineStr"/>
       <c r="L181" s="11" t="inlineStr">
@@ -6609,7 +6729,7 @@
       <c r="B184" s="19" t="inlineStr"/>
       <c r="C184" s="18" t="inlineStr">
         <is>
-          <t>05/Jun/2025</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="D184" s="18" t="inlineStr">
@@ -6634,8 +6754,10 @@
           <t>70860</t>
         </is>
       </c>
-      <c r="J184" s="22" t="n">
-        <v>2844</v>
+      <c r="J184" s="22" t="inlineStr">
+        <is>
+          <t>2844</t>
+        </is>
       </c>
       <c r="K184" s="18" t="inlineStr"/>
       <c r="L184" s="18" t="inlineStr">
@@ -6715,7 +6837,7 @@
       <c r="B187" s="12" t="inlineStr"/>
       <c r="C187" s="11" t="inlineStr">
         <is>
-          <t>05/Jun/2025</t>
+          <t>2025-06-05 00:00:00</t>
         </is>
       </c>
       <c r="D187" s="11" t="inlineStr">
@@ -6740,8 +6862,10 @@
           <t>70861</t>
         </is>
       </c>
-      <c r="J187" s="15" t="n">
-        <v>10173</v>
+      <c r="J187" s="15" t="inlineStr">
+        <is>
+          <t>10173</t>
+        </is>
       </c>
       <c r="K187" s="11" t="inlineStr"/>
       <c r="L187" s="11" t="inlineStr">
@@ -6821,7 +6945,7 @@
       <c r="B190" s="19" t="inlineStr"/>
       <c r="C190" s="18" t="inlineStr">
         <is>
-          <t>15/Jun/2025</t>
+          <t>2025-06-15 00:00:00</t>
         </is>
       </c>
       <c r="D190" s="18" t="inlineStr">
@@ -6846,8 +6970,10 @@
           <t>70424</t>
         </is>
       </c>
-      <c r="J190" s="22" t="n">
-        <v>1725</v>
+      <c r="J190" s="22" t="inlineStr">
+        <is>
+          <t>1725</t>
+        </is>
       </c>
       <c r="K190" s="18" t="inlineStr"/>
       <c r="L190" s="18" t="inlineStr">
@@ -6927,7 +7053,7 @@
       <c r="B193" s="12" t="inlineStr"/>
       <c r="C193" s="11" t="inlineStr">
         <is>
-          <t>16/Jun/2025</t>
+          <t>2025-06-16 00:00:00</t>
         </is>
       </c>
       <c r="D193" s="11" t="inlineStr">
@@ -6952,8 +7078,10 @@
           <t>70426</t>
         </is>
       </c>
-      <c r="J193" s="15" t="n">
-        <v>1725</v>
+      <c r="J193" s="15" t="inlineStr">
+        <is>
+          <t>1725</t>
+        </is>
       </c>
       <c r="K193" s="11" t="inlineStr"/>
       <c r="L193" s="11" t="inlineStr">
@@ -7033,7 +7161,7 @@
       <c r="B196" s="19" t="inlineStr"/>
       <c r="C196" s="18" t="inlineStr">
         <is>
-          <t>17/Jun/2025</t>
+          <t>2025-06-17 00:00:00</t>
         </is>
       </c>
       <c r="D196" s="18" t="inlineStr">
@@ -7058,8 +7186,10 @@
           <t>70434</t>
         </is>
       </c>
-      <c r="J196" s="22" t="n">
-        <v>3172250</v>
+      <c r="J196" s="22" t="inlineStr">
+        <is>
+          <t>3172250</t>
+        </is>
       </c>
       <c r="K196" s="18" t="inlineStr"/>
       <c r="L196" s="18" t="inlineStr">
@@ -7135,7 +7265,7 @@
       <c r="B199" s="2" t="inlineStr"/>
       <c r="C199" s="1" t="inlineStr">
         <is>
-          <t>18/Jun/2025</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="D199" s="1" t="inlineStr">
@@ -7160,8 +7290,10 @@
           <t>70474</t>
         </is>
       </c>
-      <c r="J199" s="7" t="n">
-        <v>314632</v>
+      <c r="J199" s="7" t="inlineStr">
+        <is>
+          <t>314632</t>
+        </is>
       </c>
       <c r="K199" s="1" t="inlineStr"/>
       <c r="L199" s="1" t="inlineStr"/>
@@ -7180,8 +7312,10 @@
       <c r="G200" s="1" t="inlineStr"/>
       <c r="H200" s="1" t="inlineStr"/>
       <c r="I200" s="1" t="inlineStr"/>
-      <c r="J200" s="7" t="n">
-        <v>993901</v>
+      <c r="J200" s="7" t="inlineStr">
+        <is>
+          <t>993901</t>
+        </is>
       </c>
       <c r="K200" s="1" t="inlineStr"/>
       <c r="L200" s="1" t="inlineStr"/>
@@ -7201,8 +7335,10 @@
       <c r="H201" s="1" t="inlineStr"/>
       <c r="I201" s="1" t="inlineStr"/>
       <c r="J201" s="1" t="inlineStr"/>
-      <c r="K201" s="7" t="n">
-        <v>1308533</v>
+      <c r="K201" s="7" t="inlineStr">
+        <is>
+          <t>1308533</t>
+        </is>
       </c>
       <c r="L201" s="1" t="inlineStr"/>
     </row>
@@ -7255,7 +7391,7 @@
       <c r="B204" s="12" t="inlineStr"/>
       <c r="C204" s="11" t="inlineStr">
         <is>
-          <t>21/Jun/2025</t>
+          <t>2025-06-21 00:00:00</t>
         </is>
       </c>
       <c r="D204" s="11" t="inlineStr">
@@ -7280,8 +7416,10 @@
           <t>3538</t>
         </is>
       </c>
-      <c r="J204" s="15" t="n">
-        <v>200000</v>
+      <c r="J204" s="15" t="inlineStr">
+        <is>
+          <t>200000</t>
+        </is>
       </c>
       <c r="K204" s="11" t="inlineStr"/>
       <c r="L204" s="11" t="inlineStr">
@@ -7308,8 +7446,10 @@
       <c r="G205" s="11" t="inlineStr"/>
       <c r="H205" s="11" t="inlineStr"/>
       <c r="I205" s="11" t="inlineStr"/>
-      <c r="J205" s="15" t="n">
-        <v>200000</v>
+      <c r="J205" s="15" t="inlineStr">
+        <is>
+          <t>200000</t>
+        </is>
       </c>
       <c r="K205" s="11" t="inlineStr"/>
       <c r="L205" s="11" t="inlineStr">
@@ -7337,8 +7477,10 @@
       <c r="H206" s="11" t="inlineStr"/>
       <c r="I206" s="11" t="inlineStr"/>
       <c r="J206" s="11" t="inlineStr"/>
-      <c r="K206" s="15" t="n">
-        <v>400000</v>
+      <c r="K206" s="15" t="inlineStr">
+        <is>
+          <t>400000</t>
+        </is>
       </c>
       <c r="L206" s="11" t="inlineStr">
         <is>
@@ -7417,7 +7559,7 @@
       <c r="B209" s="19" t="inlineStr"/>
       <c r="C209" s="18" t="inlineStr">
         <is>
-          <t>23/Jun/2025</t>
+          <t>2025-06-23 00:00:00</t>
         </is>
       </c>
       <c r="D209" s="18" t="inlineStr">
@@ -7442,8 +7584,10 @@
           <t>70531</t>
         </is>
       </c>
-      <c r="J209" s="22" t="n">
-        <v>62067.7</v>
+      <c r="J209" s="22" t="inlineStr">
+        <is>
+          <t>62067.7</t>
+        </is>
       </c>
       <c r="K209" s="18" t="inlineStr"/>
       <c r="L209" s="18" t="inlineStr">
@@ -7523,7 +7667,7 @@
       <c r="B212" s="12" t="inlineStr"/>
       <c r="C212" s="11" t="inlineStr">
         <is>
-          <t>23/Jun/2025</t>
+          <t>2025-06-23 00:00:00</t>
         </is>
       </c>
       <c r="D212" s="11" t="inlineStr">
@@ -7548,8 +7692,10 @@
           <t>70532</t>
         </is>
       </c>
-      <c r="J212" s="15" t="n">
-        <v>359367.81</v>
+      <c r="J212" s="15" t="inlineStr">
+        <is>
+          <t>359367.81</t>
+        </is>
       </c>
       <c r="K212" s="11" t="inlineStr"/>
       <c r="L212" s="11" t="inlineStr">
@@ -7629,7 +7775,7 @@
       <c r="B215" s="19" t="inlineStr"/>
       <c r="C215" s="18" t="inlineStr">
         <is>
-          <t>23/Jun/2025</t>
+          <t>2025-06-23 00:00:00</t>
         </is>
       </c>
       <c r="D215" s="18" t="inlineStr">
@@ -7654,8 +7800,10 @@
           <t>70540</t>
         </is>
       </c>
-      <c r="J215" s="22" t="n">
-        <v>7127.53</v>
+      <c r="J215" s="22" t="inlineStr">
+        <is>
+          <t>7127.53</t>
+        </is>
       </c>
       <c r="K215" s="18" t="inlineStr"/>
       <c r="L215" s="18" t="inlineStr">
@@ -7735,7 +7883,7 @@
       <c r="B218" s="12" t="inlineStr"/>
       <c r="C218" s="11" t="inlineStr">
         <is>
-          <t>23/Jun/2025</t>
+          <t>2025-06-23 00:00:00</t>
         </is>
       </c>
       <c r="D218" s="11" t="inlineStr">
@@ -7760,8 +7908,10 @@
           <t>70544</t>
         </is>
       </c>
-      <c r="J218" s="15" t="n">
-        <v>33701.29</v>
+      <c r="J218" s="15" t="inlineStr">
+        <is>
+          <t>33701.29</t>
+        </is>
       </c>
       <c r="K218" s="11" t="inlineStr"/>
       <c r="L218" s="11" t="inlineStr">
@@ -7837,7 +7987,7 @@
       <c r="B221" s="2" t="inlineStr"/>
       <c r="C221" s="1" t="inlineStr">
         <is>
-          <t>23/Jun/2025</t>
+          <t>2025-06-23 00:00:00</t>
         </is>
       </c>
       <c r="D221" s="1" t="inlineStr">
@@ -7862,8 +8012,10 @@
           <t>70568</t>
         </is>
       </c>
-      <c r="J221" s="7" t="n">
-        <v>24000000</v>
+      <c r="J221" s="7" t="inlineStr">
+        <is>
+          <t>24000000</t>
+        </is>
       </c>
       <c r="K221" s="1" t="inlineStr"/>
       <c r="L221" s="1" t="inlineStr"/>
@@ -7917,7 +8069,7 @@
       <c r="B224" s="19" t="inlineStr"/>
       <c r="C224" s="18" t="inlineStr">
         <is>
-          <t>24/Jun/2025</t>
+          <t>2025-06-24 00:00:00</t>
         </is>
       </c>
       <c r="D224" s="18" t="inlineStr">
@@ -7942,8 +8094,10 @@
           <t>70572</t>
         </is>
       </c>
-      <c r="J224" s="22" t="n">
-        <v>1235000</v>
+      <c r="J224" s="22" t="inlineStr">
+        <is>
+          <t>1235000</t>
+        </is>
       </c>
       <c r="K224" s="18" t="inlineStr"/>
       <c r="L224" s="18" t="inlineStr">
@@ -8019,7 +8173,7 @@
       <c r="B227" s="2" t="inlineStr"/>
       <c r="C227" s="1" t="inlineStr">
         <is>
-          <t>25/Jun/2025</t>
+          <t>2025-06-25 00:00:00</t>
         </is>
       </c>
       <c r="D227" s="1" t="inlineStr">
@@ -8044,8 +8198,10 @@
           <t>70556</t>
         </is>
       </c>
-      <c r="J227" s="7" t="n">
-        <v>1300000</v>
+      <c r="J227" s="7" t="inlineStr">
+        <is>
+          <t>1300000</t>
+        </is>
       </c>
       <c r="K227" s="1" t="inlineStr"/>
       <c r="L227" s="1" t="inlineStr"/>
@@ -8099,7 +8255,7 @@
       <c r="B230" s="12" t="inlineStr"/>
       <c r="C230" s="11" t="inlineStr">
         <is>
-          <t>26/Jun/2025</t>
+          <t>2025-06-26 00:00:00</t>
         </is>
       </c>
       <c r="D230" s="11" t="inlineStr">
@@ -8124,8 +8280,10 @@
           <t>3188</t>
         </is>
       </c>
-      <c r="J230" s="15" t="n">
-        <v>43496089</v>
+      <c r="J230" s="15" t="inlineStr">
+        <is>
+          <t>43496089</t>
+        </is>
       </c>
       <c r="K230" s="11" t="inlineStr"/>
       <c r="L230" s="11" t="inlineStr">
@@ -8205,7 +8363,7 @@
       <c r="B233" s="19" t="inlineStr"/>
       <c r="C233" s="18" t="inlineStr">
         <is>
-          <t>30/Jun/2025</t>
+          <t>2025-06-30 00:00:00</t>
         </is>
       </c>
       <c r="D233" s="18" t="inlineStr">
@@ -8231,8 +8389,10 @@
         </is>
       </c>
       <c r="J233" s="18" t="inlineStr"/>
-      <c r="K233" s="22" t="n">
-        <v>20733</v>
+      <c r="K233" s="22" t="inlineStr">
+        <is>
+          <t>20733</t>
+        </is>
       </c>
       <c r="L233" s="18" t="inlineStr">
         <is>
@@ -8307,16 +8467,20 @@
       <c r="B236" s="2" t="inlineStr"/>
       <c r="C236" s="1" t="inlineStr"/>
       <c r="D236" s="1" t="inlineStr"/>
-      <c r="E236" s="2" t="n">
-        <v>144741172.76</v>
+      <c r="E236" s="2" t="inlineStr">
+        <is>
+          <t>144741172.76</t>
+        </is>
       </c>
       <c r="F236" s="1" t="inlineStr"/>
       <c r="G236" s="1" t="inlineStr"/>
       <c r="H236" s="1" t="inlineStr"/>
       <c r="I236" s="1" t="inlineStr"/>
       <c r="J236" s="1" t="inlineStr"/>
-      <c r="K236" s="25" t="n">
-        <v>3782051767.88</v>
+      <c r="K236" s="25" t="inlineStr">
+        <is>
+          <t>3782051767.88</t>
+        </is>
       </c>
       <c r="L236" s="1" t="inlineStr"/>
     </row>
@@ -8336,8 +8500,10 @@
       </c>
       <c r="F237" s="1" t="inlineStr"/>
       <c r="G237" s="1" t="inlineStr"/>
-      <c r="H237" s="1" t="n">
-        <v>3637310595.12</v>
+      <c r="H237" s="1" t="inlineStr">
+        <is>
+          <t>3637310595.12</t>
+        </is>
       </c>
       <c r="I237" s="1" t="inlineStr"/>
       <c r="J237" s="1" t="inlineStr"/>
@@ -8349,16 +8515,20 @@
       <c r="B238" s="2" t="inlineStr"/>
       <c r="C238" s="1" t="inlineStr"/>
       <c r="D238" s="1" t="inlineStr"/>
-      <c r="E238" s="2" t="n">
-        <v>3782051767.88</v>
+      <c r="E238" s="2" t="inlineStr">
+        <is>
+          <t>3782051767.88</t>
+        </is>
       </c>
       <c r="F238" s="1" t="inlineStr"/>
       <c r="G238" s="1" t="inlineStr"/>
       <c r="H238" s="1" t="inlineStr"/>
       <c r="I238" s="1" t="inlineStr"/>
       <c r="J238" s="1" t="inlineStr"/>
-      <c r="K238" s="25" t="n">
-        <v>3782051767.88</v>
+      <c r="K238" s="25" t="inlineStr">
+        <is>
+          <t>3782051767.88</t>
+        </is>
       </c>
       <c r="L238" s="1" t="inlineStr"/>
     </row>
